--- a/doc/接口文档/用户接口.xlsx
+++ b/doc/接口文档/用户接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="8100"/>
+    <workbookView windowWidth="22515" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>添加用户</t>
   </si>
@@ -48,7 +48,7 @@
     <t>/user/save.action</t>
   </si>
   <si>
-    <t>GET</t>
+    <t>POST</t>
   </si>
   <si>
     <t>userId</t>
@@ -101,6 +101,12 @@
     <t>手机号</t>
   </si>
   <si>
+    <t>userPassowrd</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
     <t>删除用户</t>
   </si>
   <si>
@@ -146,10 +152,25 @@
     <t>result(json数组)</t>
   </si>
   <si>
+    <t>roleList(json数组)</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>角色Id</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
     <t>获取用户详情</t>
   </si>
   <si>
-    <t>/user/get.action</t>
+    <t>/user/POST.action</t>
   </si>
   <si>
     <t>result(json对象)</t>
@@ -165,12 +186,6 @@
   </si>
   <si>
     <t>role(json数组)</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>角色Id</t>
   </si>
 </sst>
 </file>
@@ -178,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -213,8 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +245,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,6 +260,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -251,26 +319,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,16 +334,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,37 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,157 +409,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,21 +570,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,11 +597,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +632,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,21 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -663,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,134 +693,134 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,12 +833,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,6 +850,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="36" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="36" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:O89"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60:O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1213,11 +1234,11 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="8">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1237,11 +1258,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1271,11 +1292,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9">
         <v>102</v>
       </c>
     </row>
@@ -1307,9 +1328,9 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3"/>
@@ -1335,9 +1356,9 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3"/>
@@ -1359,9 +1380,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3"/>
@@ -1383,13 +1404,37 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1405,11 +1450,11 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1429,11 +1474,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="8">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1463,13 +1508,13 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1495,9 +1540,9 @@
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3"/>
@@ -1523,9 +1568,9 @@
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3"/>
@@ -1534,11 +1579,11 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1547,13 +1592,13 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1569,11 +1614,11 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="8">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1593,11 +1638,11 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="8">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1627,13 +1672,13 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1659,9 +1704,9 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3"/>
@@ -1687,85 +1732,85 @@
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1781,11 +1826,11 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="7" t="s">
+      <c r="P49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="8">
+      <c r="Q49" s="8"/>
+      <c r="R49" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1805,11 +1850,11 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="7" t="s">
+      <c r="P50" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="8">
+      <c r="Q50" s="8"/>
+      <c r="R50" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1839,13 +1884,13 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1871,9 +1916,9 @@
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="3"/>
@@ -1899,9 +1944,9 @@
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="3"/>
@@ -1909,27 +1954,27 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="F54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="3"/>
@@ -1937,25 +1982,25 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="4" t="s">
+      <c r="F55" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="3"/>
@@ -1963,23 +2008,23 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="3"/>
-      <c r="M56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
+      <c r="M56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="3"/>
@@ -1992,18 +2037,18 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3"/>
@@ -2016,208 +2061,200 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
+      <c r="L58" s="6"/>
+      <c r="M58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="A66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="7" t="s">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="8">
+      <c r="Q69" s="8"/>
+      <c r="R69" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="7" t="s">
+    <row r="70" spans="1:18">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="8">
+      <c r="Q70" s="8"/>
+      <c r="R70" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="2" t="s">
+    <row r="71" spans="1:18">
+      <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2" t="s">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L72" s="3"/>
-      <c r="M72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
+      <c r="M72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3"/>
@@ -2225,23 +2262,27 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
+      <c r="K73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3"/>
@@ -2249,213 +2290,213 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="4" t="s">
+      <c r="F74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4" t="s">
+      <c r="L77" s="6"/>
+      <c r="M77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="7" t="s">
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="8">
+      <c r="Q91" s="8"/>
+      <c r="R91" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="7" t="s">
+    <row r="92" spans="1:18">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="8">
+      <c r="Q92" s="8"/>
+      <c r="R92" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="2" t="s">
+    <row r="93" spans="1:18">
+      <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2" t="s">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2" t="s">
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="8">
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-    </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="3"/>
+      <c r="A94" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="L94" s="3"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
+      <c r="M94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="3"/>
@@ -2463,26 +2504,100 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
+      <c r="F95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="176">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -2511,6 +2626,9 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="A21:D21"/>
@@ -2589,24 +2707,18 @@
     <mergeCell ref="H58:J58"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="K59:O59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:O71"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="H72:J72"/>
     <mergeCell ref="K72:L72"/>
@@ -2617,40 +2729,51 @@
     <mergeCell ref="M73:O73"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:D93"/>
     <mergeCell ref="F93:G93"/>
     <mergeCell ref="H93:J93"/>
     <mergeCell ref="K93:O93"/>
-    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:J94"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="M94:O94"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:J95"/>
     <mergeCell ref="K95:L95"/>
     <mergeCell ref="M95:O95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:O96"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A33:O34"/>
     <mergeCell ref="A49:O50"/>
-    <mergeCell ref="A66:O67"/>
-    <mergeCell ref="A88:O89"/>
+    <mergeCell ref="A69:O70"/>
+    <mergeCell ref="A91:O92"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/接口文档/用户接口.xlsx
+++ b/doc/接口文档/用户接口.xlsx
@@ -170,7 +170,7 @@
     <t>获取用户详情</t>
   </si>
   <si>
-    <t>/user/POST.action</t>
+    <t>/user/get.action</t>
   </si>
   <si>
     <t>result(json对象)</t>
@@ -193,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,16 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -245,22 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,17 +274,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,6 +288,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -319,16 +320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,9 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +352,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -409,25 +409,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,91 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,54 +593,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +621,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -678,145 +678,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60:O61"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
